--- a/dutyRate.xlsx
+++ b/dutyRate.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\invoice_checkList\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC971B0-38D1-4982-B7EF-1D701E32F154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" tabRatio="623"/>
+    <workbookView minimized="1" xWindow="4020" yWindow="4020" windowWidth="20500" windowHeight="7730" tabRatio="623" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCTV" sheetId="3" r:id="rId1"/>
@@ -21,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,329 +36,324 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
+    <t>Normal BCD</t>
+  </si>
+  <si>
+    <t>Normal SWS</t>
+  </si>
+  <si>
+    <t>Normal IGST</t>
+  </si>
+  <si>
+    <t>Final BCD</t>
+  </si>
+  <si>
+    <t>Final SWS</t>
+  </si>
+  <si>
+    <t>Final IGST</t>
+  </si>
+  <si>
+    <t>HSN1</t>
+  </si>
+  <si>
+    <t>HSN2</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>PCBA</t>
+  </si>
+  <si>
+    <t>Bare PCB</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>Power inductor</t>
+  </si>
+  <si>
+    <t>Magnetic bead</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>Socket</t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>Camera component</t>
+  </si>
+  <si>
+    <t>PCB holder</t>
+  </si>
+  <si>
+    <t>Plastic ring</t>
+  </si>
+  <si>
+    <t>Lens ring</t>
+  </si>
+  <si>
+    <t>Bottom base</t>
+  </si>
+  <si>
+    <t>Rubber ring</t>
+  </si>
+  <si>
+    <t>Tape</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>Silica gel</t>
+  </si>
+  <si>
+    <t>Thermal pad</t>
+  </si>
+  <si>
+    <t>Self tapping screw</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>Plastic board</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>User guide</t>
+  </si>
+  <si>
+    <t>User Manual</t>
+  </si>
+  <si>
+    <t>Carton box</t>
+  </si>
+  <si>
+    <t>Gift box</t>
+  </si>
+  <si>
+    <t>Plastic bag</t>
+  </si>
+  <si>
+    <t>Foam</t>
+  </si>
+  <si>
+    <t>Plastic Label</t>
+  </si>
+  <si>
+    <t>Base case</t>
+  </si>
+  <si>
+    <t>Cable wire for mouse</t>
+  </si>
+  <si>
+    <t>Paper board</t>
+  </si>
+  <si>
+    <t>Installation guide</t>
+  </si>
+  <si>
+    <t>Cystal</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>Triode</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>Transistor</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Radiator</t>
+  </si>
+  <si>
+    <t>Heatsink</t>
+  </si>
+  <si>
+    <t>Decorative ring</t>
+  </si>
+  <si>
+    <t>Rubber rope</t>
+  </si>
+  <si>
+    <t>Camera base</t>
+  </si>
+  <si>
+    <t>Plastic pad</t>
+  </si>
+  <si>
+    <t>Cover component</t>
+  </si>
+  <si>
+    <t>Bracket</t>
+  </si>
+  <si>
+    <t>Hexagonal wrench</t>
+  </si>
+  <si>
+    <t>Accessories bag</t>
+  </si>
+  <si>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>Plastic Holder</t>
+  </si>
+  <si>
+    <t>Nameplate</t>
+  </si>
+  <si>
+    <t>Cable tie</t>
+  </si>
+  <si>
+    <t>Front panel</t>
+  </si>
+  <si>
+    <t>Power adaptor</t>
+  </si>
+  <si>
+    <t>Screw bag</t>
+  </si>
+  <si>
+    <t>Plastic handle</t>
+  </si>
+  <si>
+    <t>Inner box</t>
+  </si>
+  <si>
+    <t>Electronic Inductor</t>
+  </si>
+  <si>
+    <t>Plastic column</t>
+  </si>
+  <si>
+    <t>Decorative parts</t>
+  </si>
+  <si>
+    <t>Rubber plug</t>
+  </si>
+  <si>
+    <t>Metal ring</t>
+  </si>
+  <si>
+    <t>Metal board</t>
+  </si>
+  <si>
+    <t>Rubber pad</t>
+  </si>
+  <si>
+    <t>Magnet</t>
+  </si>
+  <si>
+    <t>Copper foil</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Micro SD card</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Wired mouse</t>
+  </si>
+  <si>
+    <t>Keypad</t>
+  </si>
+  <si>
+    <t>Plastic rope</t>
+  </si>
+  <si>
+    <t>Glue</t>
+  </si>
+  <si>
+    <t>Power supply</t>
+  </si>
+  <si>
+    <t>Adhesive tape</t>
+  </si>
+  <si>
+    <t>USB drive</t>
+  </si>
+  <si>
+    <t>Fixture</t>
+  </si>
+  <si>
+    <t>Magnet ring</t>
+  </si>
+  <si>
+    <t>Metal ball</t>
+  </si>
+  <si>
+    <t>Metal gasket</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Metal accessories</t>
+  </si>
+  <si>
+    <t>Shield cover</t>
+  </si>
+  <si>
+    <t>Foam for packing</t>
+  </si>
+  <si>
+    <t>Antenna</t>
+  </si>
+  <si>
+    <t>Light guide column</t>
+  </si>
+  <si>
+    <t>Screw</t>
+  </si>
+  <si>
     <t>Item Name</t>
-  </si>
-  <si>
-    <t>Normal BCD</t>
-  </si>
-  <si>
-    <t>Normal SWS</t>
-  </si>
-  <si>
-    <t>Normal IGST</t>
-  </si>
-  <si>
-    <t>Final BCD</t>
-  </si>
-  <si>
-    <t>Final SWS</t>
-  </si>
-  <si>
-    <t>Final IGST</t>
-  </si>
-  <si>
-    <t>HSN1</t>
-  </si>
-  <si>
-    <t>HSN2</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>PCBA</t>
-  </si>
-  <si>
-    <t>Bare PCB</t>
-  </si>
-  <si>
-    <t>IC</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
-    <t>Power inductor</t>
-  </si>
-  <si>
-    <t>Magnetic bead</t>
-  </si>
-  <si>
-    <t>Transformer</t>
-  </si>
-  <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>Socket</t>
-  </si>
-  <si>
-    <t>Cover</t>
-  </si>
-  <si>
-    <t>Camera component</t>
-  </si>
-  <si>
-    <t>PCB holder</t>
-  </si>
-  <si>
-    <t>Plastic ring</t>
-  </si>
-  <si>
-    <t>Lens ring</t>
-  </si>
-  <si>
-    <t>Bottom base</t>
-  </si>
-  <si>
-    <t>Rubber ring</t>
-  </si>
-  <si>
-    <t>Tape</t>
-  </si>
-  <si>
-    <t>Cable</t>
-  </si>
-  <si>
-    <t>Silica gel</t>
-  </si>
-  <si>
-    <t>Thermal pad</t>
-  </si>
-  <si>
-    <t>Self tapping screw</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>MIC</t>
-  </si>
-  <si>
-    <t>Plastic board</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>User guide</t>
-  </si>
-  <si>
-    <t>User Manual</t>
-  </si>
-  <si>
-    <t>Carton box</t>
-  </si>
-  <si>
-    <t>Gift box</t>
-  </si>
-  <si>
-    <t>Plastic bag</t>
-  </si>
-  <si>
-    <t>Foam</t>
-  </si>
-  <si>
-    <t>Plastic Label</t>
-  </si>
-  <si>
-    <t>Base case</t>
-  </si>
-  <si>
-    <t>Cable wire for mouse</t>
-  </si>
-  <si>
-    <t>Paper board</t>
-  </si>
-  <si>
-    <t>Installation guide</t>
-  </si>
-  <si>
-    <t>Cystal</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>Triode</t>
-  </si>
-  <si>
-    <t>Buzzer</t>
-  </si>
-  <si>
-    <t>Transistor</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>Radiator</t>
-  </si>
-  <si>
-    <t>Heatsink</t>
-  </si>
-  <si>
-    <t>Decorative ring</t>
-  </si>
-  <si>
-    <t>Rubber rope</t>
-  </si>
-  <si>
-    <t>Camera base</t>
-  </si>
-  <si>
-    <t>Plastic pad</t>
-  </si>
-  <si>
-    <t>Cover component</t>
-  </si>
-  <si>
-    <t>Bracket</t>
-  </si>
-  <si>
-    <t>Hexagonal wrench</t>
-  </si>
-  <si>
-    <t>Accessories bag</t>
-  </si>
-  <si>
-    <t>Film</t>
-  </si>
-  <si>
-    <t>Plastic Holder</t>
-  </si>
-  <si>
-    <t>Nameplate</t>
-  </si>
-  <si>
-    <t>Cable tie</t>
-  </si>
-  <si>
-    <t>Front panel</t>
-  </si>
-  <si>
-    <t>Power adaptor</t>
-  </si>
-  <si>
-    <t>Screw bag</t>
-  </si>
-  <si>
-    <t>Plastic handle</t>
-  </si>
-  <si>
-    <t>Inner box</t>
-  </si>
-  <si>
-    <t>Electronic Inductor</t>
-  </si>
-  <si>
-    <t>Plastic column</t>
-  </si>
-  <si>
-    <t>Decorative parts</t>
-  </si>
-  <si>
-    <t>Rubber plug</t>
-  </si>
-  <si>
-    <t>Metal ring</t>
-  </si>
-  <si>
-    <t>Metal board</t>
-  </si>
-  <si>
-    <t>Rubber pad</t>
-  </si>
-  <si>
-    <t>Magnet</t>
-  </si>
-  <si>
-    <t>Copper foil</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>Micro SD card</t>
-  </si>
-  <si>
-    <t>Motor</t>
-  </si>
-  <si>
-    <t>Wired mouse</t>
-  </si>
-  <si>
-    <t>Keypad</t>
-  </si>
-  <si>
-    <t>Plastic rope</t>
-  </si>
-  <si>
-    <t>Glue</t>
-  </si>
-  <si>
-    <t>Power supply</t>
-  </si>
-  <si>
-    <t>Adhesive tape</t>
-  </si>
-  <si>
-    <t>USB drive</t>
-  </si>
-  <si>
-    <t>Fixture</t>
-  </si>
-  <si>
-    <t>Magnet ring</t>
-  </si>
-  <si>
-    <t>Metal ball</t>
-  </si>
-  <si>
-    <t>Metal gasket</t>
-  </si>
-  <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>Metal accessories</t>
-  </si>
-  <si>
-    <t>Shield cover</t>
-  </si>
-  <si>
-    <t>Foam for packing</t>
-  </si>
-  <si>
-    <t>Antenna</t>
-  </si>
-  <si>
-    <t>Light guide column</t>
-  </si>
-  <si>
-    <t>Screw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,36 +365,37 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Segoe UI Semibold"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -403,160 +403,24 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,204 +429,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -785,251 +469,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,56 +522,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1143,15 +537,18 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFF00"/>
-      <color rgb="00FF0000"/>
-      <color rgb="00FFFFFF"/>
-      <color rgb="00000000"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1409,71 +806,71 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1">
-    <tabColor theme="4" tint="0.399975585192419"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1" filterMode="1">
+    <tabColor theme="4" tint="0.39994506668294322"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="I90" sqref="I90"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66363636363636" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="10.8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.8636363636364" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.8363636363636" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6909090909091" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.50909090909091" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.66363636363636" style="2"/>
-    <col min="8" max="9" width="16.8363636363636" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" spans="1:10">
+    <row r="1" spans="1:10" ht="16">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="14.5" hidden="1">
+      <c r="A2" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" ht="14.5" spans="1:10">
-      <c r="A2" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="8">
         <v>15</v>
@@ -1499,9 +896,9 @@
       <c r="I2" s="8"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" ht="14.5" spans="1:10">
+    <row r="3" spans="1:10" ht="14.5" hidden="1">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="8">
         <v>0</v>
@@ -1528,9 +925,9 @@
       <c r="I3" s="8"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" ht="14.5" spans="1:10">
+    <row r="4" spans="1:10" ht="14.5" hidden="1">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8">
         <v>0</v>
@@ -1557,9 +954,9 @@
       <c r="I4" s="8"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" ht="14.5" spans="1:10">
+    <row r="5" spans="1:10" ht="14.5" hidden="1">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="8">
         <v>0</v>
@@ -1586,9 +983,9 @@
       <c r="I5" s="8"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" ht="14.5" spans="1:10">
+    <row r="6" spans="1:10" ht="14.5" hidden="1">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -1615,9 +1012,9 @@
       <c r="I6" s="8"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" ht="14.5" spans="1:10">
+    <row r="7" spans="1:10" ht="14.5" hidden="1">
       <c r="A7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8">
         <v>7.5</v>
@@ -1643,9 +1040,9 @@
       <c r="I7" s="8"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" ht="14.5" spans="1:10">
+    <row r="8" spans="1:10" ht="14.5" hidden="1">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="8">
         <v>7.5</v>
@@ -1671,9 +1068,9 @@
       <c r="I8" s="8"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" ht="14.5" spans="1:10">
+    <row r="9" spans="1:10" ht="14.5" hidden="1">
       <c r="A9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="8">
         <v>10</v>
@@ -1699,9 +1096,9 @@
       <c r="I9" s="8"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" ht="14.5" spans="1:10">
+    <row r="10" spans="1:10" ht="14.5" hidden="1">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
@@ -1713,7 +1110,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="8">
-        <f t="shared" ref="E7:E14" si="0">B10</f>
+        <f t="shared" ref="E10:E11" si="0">B10</f>
         <v>0</v>
       </c>
       <c r="F10" s="8">
@@ -1728,9 +1125,9 @@
       <c r="I10" s="8"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" ht="14.5" spans="1:10">
+    <row r="11" spans="1:10" ht="14.5" hidden="1">
       <c r="A11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8">
         <v>0</v>
@@ -1757,9 +1154,9 @@
       <c r="I11" s="8"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" ht="12" customHeight="1" spans="1:10">
+    <row r="12" spans="1:10" ht="12" hidden="1" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="8">
         <v>10</v>
@@ -1785,9 +1182,9 @@
       <c r="I12" s="8"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" ht="14.5" spans="1:10">
+    <row r="13" spans="1:10" ht="14.5" hidden="1">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8">
         <v>10</v>
@@ -1813,9 +1210,9 @@
       <c r="I13" s="8"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" ht="14.5" spans="1:10">
+    <row r="14" spans="1:10" ht="14.5" hidden="1">
       <c r="A14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8">
         <v>15</v>
@@ -1841,9 +1238,9 @@
       <c r="I14" s="8"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" ht="14.5" spans="1:10">
+    <row r="15" spans="1:10" ht="14.5" hidden="1">
       <c r="A15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8">
         <v>15</v>
@@ -1869,9 +1266,9 @@
       <c r="I15" s="8"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" ht="14.5" spans="1:10">
+    <row r="16" spans="1:10" ht="14.5" hidden="1">
       <c r="A16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8">
         <v>15</v>
@@ -1897,9 +1294,9 @@
       <c r="I16" s="8"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" ht="14.5" spans="1:10">
+    <row r="17" spans="1:10" ht="14.5" hidden="1">
       <c r="A17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="8">
         <v>15</v>
@@ -1925,9 +1322,9 @@
       <c r="I17" s="8"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" ht="14.5" spans="1:10">
+    <row r="18" spans="1:10" ht="14.5" hidden="1">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8">
         <v>15</v>
@@ -1953,9 +1350,9 @@
       <c r="I18" s="8"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" ht="14.5" spans="1:10">
+    <row r="19" spans="1:10" ht="14.5" hidden="1">
       <c r="A19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="8">
         <v>15</v>
@@ -1981,9 +1378,9 @@
       <c r="I19" s="8"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" ht="14.5" spans="1:10">
+    <row r="20" spans="1:10" ht="14.5" hidden="1">
       <c r="A20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="8">
         <v>10</v>
@@ -2009,9 +1406,9 @@
       <c r="I20" s="8"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" ht="14.5" spans="1:10">
+    <row r="21" spans="1:10" ht="14.5" hidden="1">
       <c r="A21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="8">
         <v>10</v>
@@ -2038,9 +1435,9 @@
       <c r="I21" s="8"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" ht="14.5" spans="1:10">
+    <row r="22" spans="1:10" ht="14.5" hidden="1">
       <c r="A22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="8">
         <v>15</v>
@@ -2066,9 +1463,9 @@
       <c r="I22" s="8"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" ht="14.5" spans="1:10">
+    <row r="23" spans="1:10" ht="14.5" hidden="1">
       <c r="A23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="8">
         <v>7.5</v>
@@ -2095,9 +1492,9 @@
       <c r="I23" s="8"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" ht="14.5" spans="1:10">
+    <row r="24" spans="1:10" ht="14.5" hidden="1">
       <c r="A24" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="8">
         <v>10</v>
@@ -2123,9 +1520,9 @@
       <c r="I24" s="8"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" ht="14.5" spans="1:10">
+    <row r="25" spans="1:10" ht="14.5" hidden="1">
       <c r="A25" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="8">
         <v>15</v>
@@ -2151,9 +1548,9 @@
       <c r="I25" s="8"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" ht="14.5" spans="1:10">
+    <row r="26" spans="1:10" ht="14.5" hidden="1">
       <c r="A26" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="8">
         <v>15</v>
@@ -2179,9 +1576,9 @@
       <c r="I26" s="8"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" ht="14.5" spans="1:10">
+    <row r="27" spans="1:10" ht="14.5" hidden="1">
       <c r="A27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="8">
         <v>10</v>
@@ -2207,9 +1604,9 @@
       <c r="I27" s="8"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" ht="14.5" spans="1:10">
+    <row r="28" spans="1:10" ht="14.5" hidden="1">
       <c r="A28" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="8">
         <v>15</v>
@@ -2235,9 +1632,9 @@
       <c r="I28" s="8"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" ht="14.5" spans="1:10">
+    <row r="29" spans="1:10" ht="14.5" hidden="1">
       <c r="A29" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="8">
         <v>10</v>
@@ -2249,7 +1646,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" ref="E29:E36" si="1">B29</f>
+        <f t="shared" ref="E29:E35" si="1">B29</f>
         <v>10</v>
       </c>
       <c r="F29" s="8">
@@ -2264,9 +1661,9 @@
       <c r="I29" s="8"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" ht="14.5" spans="1:10">
+    <row r="30" spans="1:10" ht="14.5" hidden="1">
       <c r="A30" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="8">
         <v>10</v>
@@ -2293,9 +1690,9 @@
       <c r="I30" s="8"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" ht="14.5" spans="1:10">
+    <row r="31" spans="1:10" ht="14.5" hidden="1">
       <c r="A31" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="8">
         <v>10</v>
@@ -2322,9 +1719,9 @@
       <c r="I31" s="8"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" ht="14.5" spans="1:10">
+    <row r="32" spans="1:10" ht="14.5" hidden="1">
       <c r="A32" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="8">
         <v>10</v>
@@ -2351,9 +1748,9 @@
       <c r="I32" s="8"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" ht="14.5" spans="1:10">
+    <row r="33" spans="1:10" ht="14.5" hidden="1">
       <c r="A33" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="8">
         <v>10</v>
@@ -2380,9 +1777,9 @@
       <c r="I33" s="8"/>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" ht="14.5" spans="1:10">
+    <row r="34" spans="1:10" ht="14.5" hidden="1">
       <c r="A34" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="8">
         <v>15</v>
@@ -2409,9 +1806,9 @@
       <c r="I34" s="8"/>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" ht="14.5" spans="1:10">
+    <row r="35" spans="1:10" ht="14.5" hidden="1">
       <c r="A35" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="8">
         <v>15</v>
@@ -2438,9 +1835,9 @@
       <c r="I35" s="8"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="14.5" spans="1:10">
+    <row r="36" spans="1:10" s="1" customFormat="1" ht="14.5" hidden="1">
       <c r="A36" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="8">
         <v>10</v>
@@ -2466,9 +1863,9 @@
       <c r="I36" s="8"/>
       <c r="J36" s="13"/>
     </row>
-    <row r="37" ht="14.5" spans="1:10">
+    <row r="37" spans="1:10" ht="14.5" hidden="1">
       <c r="A37" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="8">
         <v>15</v>
@@ -2494,9 +1891,9 @@
       <c r="I37" s="8"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" ht="14.5" spans="1:10">
+    <row r="38" spans="1:10" ht="14.5" hidden="1">
       <c r="A38" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="8">
         <v>10</v>
@@ -2523,9 +1920,9 @@
       <c r="I38" s="8"/>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" ht="14.5" spans="1:10">
+    <row r="39" spans="1:10" ht="14.5" hidden="1">
       <c r="A39" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="8">
         <v>10</v>
@@ -2551,9 +1948,9 @@
       <c r="I39" s="8"/>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" ht="14.5" spans="1:10">
+    <row r="40" spans="1:10" ht="14.5" hidden="1">
       <c r="A40" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="8">
         <v>10</v>
@@ -2579,9 +1976,9 @@
       <c r="I40" s="8"/>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" ht="14.5" spans="1:10">
+    <row r="41" spans="1:10" ht="14.5">
       <c r="A41" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="8">
         <v>0</v>
@@ -2593,7 +1990,7 @@
         <v>18</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" ref="E41:E48" si="2">B41</f>
+        <f t="shared" ref="E41:E47" si="2">B41</f>
         <v>0</v>
       </c>
       <c r="F41" s="8">
@@ -2608,9 +2005,9 @@
       <c r="I41" s="8"/>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" ht="14.5" spans="1:10">
+    <row r="42" spans="1:10" ht="14.5" hidden="1">
       <c r="A42" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="8">
         <v>7.5</v>
@@ -2636,9 +2033,9 @@
       <c r="I42" s="8"/>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" ht="14.5" spans="1:10">
+    <row r="43" spans="1:10" ht="14.5" hidden="1">
       <c r="A43" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="8">
         <v>0</v>
@@ -2665,9 +2062,9 @@
       <c r="I43" s="8"/>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" ht="14.5" spans="1:10">
+    <row r="44" spans="1:10" ht="14.5" hidden="1">
       <c r="A44" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="8">
         <v>10</v>
@@ -2694,9 +2091,9 @@
       <c r="I44" s="8"/>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" ht="14.5" spans="1:10">
+    <row r="45" spans="1:10" ht="14.5" hidden="1">
       <c r="A45" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="8">
         <v>0</v>
@@ -2723,9 +2120,9 @@
       <c r="I45" s="8"/>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" ht="14.5" spans="1:10">
+    <row r="46" spans="1:10" ht="14.5" hidden="1">
       <c r="A46" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="8">
         <v>10</v>
@@ -2752,9 +2149,9 @@
       <c r="I46" s="8"/>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" ht="14.5" spans="1:10">
+    <row r="47" spans="1:10" ht="14.5" hidden="1">
       <c r="A47" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="8">
         <v>10</v>
@@ -2781,9 +2178,9 @@
       <c r="I47" s="8"/>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" ht="14.5" spans="1:10">
+    <row r="48" spans="1:10" ht="14.5" hidden="1">
       <c r="A48" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="8">
         <v>10</v>
@@ -2809,9 +2206,9 @@
       <c r="I48" s="8"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" ht="14.5" spans="1:10">
+    <row r="49" spans="1:10" ht="14.5" hidden="1">
       <c r="A49" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="8">
         <v>15</v>
@@ -2837,9 +2234,9 @@
       <c r="I49" s="8"/>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" ht="14.5" spans="1:10">
+    <row r="50" spans="1:10" ht="14.5" hidden="1">
       <c r="A50" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="8">
         <v>10</v>
@@ -2865,9 +2262,9 @@
       <c r="I50" s="8"/>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" ht="14.5" spans="1:10">
+    <row r="51" spans="1:10" ht="14.5" hidden="1">
       <c r="A51" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="8">
         <v>15</v>
@@ -2893,9 +2290,9 @@
       <c r="I51" s="8"/>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" ht="14.5" spans="1:10">
+    <row r="52" spans="1:10" ht="14.5" hidden="1">
       <c r="A52" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="8">
         <v>15</v>
@@ -2921,9 +2318,9 @@
       <c r="I52" s="8"/>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" ht="14.5" spans="1:10">
+    <row r="53" spans="1:10" ht="14.5" hidden="1">
       <c r="A53" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="8">
         <v>15</v>
@@ -2949,9 +2346,9 @@
       <c r="I53" s="8"/>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" ht="14.5" spans="1:10">
+    <row r="54" spans="1:10" ht="14.5" hidden="1">
       <c r="A54" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="8">
         <v>15</v>
@@ -2977,9 +2374,9 @@
       <c r="I54" s="8"/>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" ht="14.5" spans="1:10">
+    <row r="55" spans="1:10" ht="14.5" hidden="1">
       <c r="A55" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="8">
         <v>10</v>
@@ -3005,9 +2402,9 @@
       <c r="I55" s="8"/>
       <c r="J55" s="11"/>
     </row>
-    <row r="56" ht="14.5" spans="1:10">
+    <row r="56" spans="1:10" ht="14.5" hidden="1">
       <c r="A56" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="8">
         <v>15</v>
@@ -3033,9 +2430,9 @@
       <c r="I56" s="8"/>
       <c r="J56" s="11"/>
     </row>
-    <row r="57" ht="14.5" spans="1:10">
+    <row r="57" spans="1:10" ht="14.5" hidden="1">
       <c r="A57" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="8">
         <v>15</v>
@@ -3061,9 +2458,9 @@
       <c r="I57" s="8"/>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" ht="14.5" spans="1:10">
+    <row r="58" spans="1:10" ht="14.5" hidden="1">
       <c r="A58" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="8">
         <v>15</v>
@@ -3089,9 +2486,9 @@
       <c r="I58" s="8"/>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" ht="14.5" spans="1:10">
+    <row r="59" spans="1:10" ht="14.5" hidden="1">
       <c r="A59" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="8">
         <v>10</v>
@@ -3118,9 +2515,9 @@
       <c r="I59" s="8"/>
       <c r="J59" s="11"/>
     </row>
-    <row r="60" ht="14.5" spans="1:10">
+    <row r="60" spans="1:10" ht="14.5" hidden="1">
       <c r="A60" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="8">
         <v>15</v>
@@ -3146,9 +2543,9 @@
       <c r="I60" s="8"/>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" ht="14.5" spans="1:10">
+    <row r="61" spans="1:10" ht="14.5" hidden="1">
       <c r="A61" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="8">
         <v>15</v>
@@ -3174,9 +2571,9 @@
       <c r="I61" s="8"/>
       <c r="J61" s="11"/>
     </row>
-    <row r="62" ht="14.5" spans="1:10">
+    <row r="62" spans="1:10" ht="14.5" hidden="1">
       <c r="A62" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="8">
         <v>20</v>
@@ -3203,9 +2600,9 @@
       <c r="I62" s="8"/>
       <c r="J62" s="11"/>
     </row>
-    <row r="63" ht="14.5" spans="1:10">
+    <row r="63" spans="1:10" ht="14.5" hidden="1">
       <c r="A63" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="8">
         <v>25</v>
@@ -3231,9 +2628,9 @@
       <c r="I63" s="8"/>
       <c r="J63" s="11"/>
     </row>
-    <row r="64" ht="14.5" spans="1:10">
+    <row r="64" spans="1:10" ht="14.5" hidden="1">
       <c r="A64" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="8">
         <v>15</v>
@@ -3245,7 +2642,7 @@
         <v>18</v>
       </c>
       <c r="E64" s="8">
-        <f t="shared" ref="E63:E68" si="3">B64</f>
+        <f t="shared" ref="E64:E66" si="3">B64</f>
         <v>15</v>
       </c>
       <c r="F64" s="8">
@@ -3260,9 +2657,9 @@
       <c r="I64" s="8"/>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" ht="14.5" spans="1:10">
+    <row r="65" spans="1:10" ht="14.5" hidden="1">
       <c r="A65" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="8">
         <v>10</v>
@@ -3289,9 +2686,9 @@
       <c r="I65" s="8"/>
       <c r="J65" s="11"/>
     </row>
-    <row r="66" ht="14.5" spans="1:10">
+    <row r="66" spans="1:10" ht="14.5" hidden="1">
       <c r="A66" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="8">
         <v>0</v>
@@ -3318,9 +2715,9 @@
       <c r="I66" s="8"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" ht="14.5" spans="1:10">
+    <row r="67" spans="1:10" ht="14.5" hidden="1">
       <c r="A67" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67" s="8">
         <v>15</v>
@@ -3346,9 +2743,9 @@
       <c r="I67" s="8"/>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" ht="14.5" spans="1:10">
+    <row r="68" spans="1:10" ht="14.5" hidden="1">
       <c r="A68" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" s="8">
         <v>15</v>
@@ -3374,9 +2771,9 @@
       <c r="I68" s="8"/>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" ht="14.5" spans="1:10">
+    <row r="69" spans="1:10" ht="14.5" hidden="1">
       <c r="A69" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="8">
         <v>15</v>
@@ -3402,9 +2799,9 @@
       <c r="I69" s="8"/>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" ht="14.5" spans="1:10">
+    <row r="70" spans="1:10" ht="14.5" hidden="1">
       <c r="A70" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="8">
         <v>15</v>
@@ -3430,9 +2827,9 @@
       <c r="I70" s="8"/>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" ht="14.5" spans="1:10">
+    <row r="71" spans="1:10" ht="14.5" hidden="1">
       <c r="A71" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" s="8">
         <v>15</v>
@@ -3458,9 +2855,9 @@
       <c r="I71" s="8"/>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" ht="14.5" spans="1:10">
+    <row r="72" spans="1:10" ht="14.5" hidden="1">
       <c r="A72" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B72" s="8">
         <v>10</v>
@@ -3486,9 +2883,9 @@
       <c r="I72" s="8"/>
       <c r="J72" s="9"/>
     </row>
-    <row r="73" ht="14.5" spans="1:10">
+    <row r="73" spans="1:10" ht="14.5" hidden="1">
       <c r="A73" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73" s="8">
         <v>7.5</v>
@@ -3514,9 +2911,9 @@
       <c r="I73" s="8"/>
       <c r="J73" s="9"/>
     </row>
-    <row r="74" ht="14.5" spans="1:10">
+    <row r="74" spans="1:10" ht="14.5" hidden="1">
       <c r="A74" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74" s="8">
         <v>5</v>
@@ -3542,9 +2939,9 @@
       <c r="I74" s="8"/>
       <c r="J74" s="9"/>
     </row>
-    <row r="75" ht="14.5" spans="1:10">
+    <row r="75" spans="1:10" ht="14.5" hidden="1">
       <c r="A75" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75" s="8">
         <v>15</v>
@@ -3570,9 +2967,9 @@
       <c r="I75" s="8"/>
       <c r="J75" s="9"/>
     </row>
-    <row r="76" ht="14.5" spans="1:10">
+    <row r="76" spans="1:10" ht="14.5" hidden="1">
       <c r="A76" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" s="8">
         <v>10</v>
@@ -3598,9 +2995,9 @@
       <c r="I76" s="8"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" ht="14.5" spans="1:10">
+    <row r="77" spans="1:10" ht="14.5" hidden="1">
       <c r="A77" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77" s="8">
         <v>15</v>
@@ -3626,9 +3023,9 @@
       <c r="I77" s="8"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" ht="14.5" spans="1:10">
+    <row r="78" spans="1:10" ht="14.5" hidden="1">
       <c r="A78" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B78" s="8">
         <v>15</v>
@@ -3654,9 +3051,9 @@
       <c r="I78" s="8"/>
       <c r="J78" s="9"/>
     </row>
-    <row r="79" ht="14.5" spans="1:10">
+    <row r="79" spans="1:10" ht="14.5" hidden="1">
       <c r="A79" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" s="8">
         <v>10</v>
@@ -3682,9 +3079,9 @@
       <c r="I79" s="8"/>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" ht="14.5" spans="1:10">
+    <row r="80" spans="1:10" ht="14.5" hidden="1">
       <c r="A80" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80" s="8">
         <v>15</v>
@@ -3711,9 +3108,9 @@
       <c r="I80" s="8"/>
       <c r="J80" s="9"/>
     </row>
-    <row r="81" ht="14.5" spans="1:10">
+    <row r="81" spans="1:10" ht="14.5" hidden="1">
       <c r="A81" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81" s="8">
         <v>10</v>
@@ -3740,9 +3137,9 @@
       <c r="I81" s="8"/>
       <c r="J81" s="9"/>
     </row>
-    <row r="82" ht="14.5" spans="1:10">
+    <row r="82" spans="1:10" ht="14.5" hidden="1">
       <c r="A82" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82" s="8">
         <v>20</v>
@@ -3769,9 +3166,9 @@
       <c r="I82" s="8"/>
       <c r="J82" s="14"/>
     </row>
-    <row r="83" ht="14.5" spans="1:10">
+    <row r="83" spans="1:10" ht="14.5" hidden="1">
       <c r="A83" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B83" s="8">
         <v>10</v>
@@ -3798,9 +3195,9 @@
       <c r="I83" s="8"/>
       <c r="J83" s="9"/>
     </row>
-    <row r="84" ht="14.5" spans="1:10">
+    <row r="84" spans="1:10" ht="14.5" hidden="1">
       <c r="A84" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B84" s="8">
         <v>10</v>
@@ -3827,9 +3224,9 @@
       <c r="I84" s="8"/>
       <c r="J84" s="9"/>
     </row>
-    <row r="85" ht="14.5" spans="1:10">
+    <row r="85" spans="1:10" ht="14.5" hidden="1">
       <c r="A85" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B85" s="8">
         <v>7.5</v>
@@ -3856,9 +3253,9 @@
       <c r="I85" s="8"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" ht="14.5" spans="1:10">
+    <row r="86" spans="1:10" ht="14.5" hidden="1">
       <c r="A86" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B86" s="8">
         <v>7.5</v>
@@ -3884,9 +3281,9 @@
       <c r="I86" s="8"/>
       <c r="J86" s="9"/>
     </row>
-    <row r="87" ht="14.5" spans="1:10">
+    <row r="87" spans="1:10" ht="14.5" hidden="1">
       <c r="A87" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" s="8">
         <v>15</v>
@@ -3912,9 +3309,9 @@
       <c r="I87" s="8"/>
       <c r="J87" s="9"/>
     </row>
-    <row r="88" ht="14.5" spans="1:10">
+    <row r="88" spans="1:10" ht="14.5" hidden="1">
       <c r="A88" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B88" s="8">
         <v>15</v>
@@ -3940,9 +3337,9 @@
       <c r="I88" s="8"/>
       <c r="J88" s="11"/>
     </row>
-    <row r="89" ht="14.5" spans="1:10">
+    <row r="89" spans="1:10" ht="14.5" hidden="1">
       <c r="A89" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B89" s="8">
         <v>0</v>
@@ -3968,9 +3365,9 @@
       <c r="I89" s="8"/>
       <c r="J89" s="9"/>
     </row>
-    <row r="90" ht="14.5" spans="1:10">
+    <row r="90" spans="1:10" ht="14.5" hidden="1">
       <c r="A90" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B90" s="8">
         <v>15</v>
@@ -3996,9 +3393,9 @@
       <c r="I90" s="8"/>
       <c r="J90" s="11"/>
     </row>
-    <row r="91" ht="14.5" spans="1:10">
+    <row r="91" spans="1:10" ht="14.5" hidden="1">
       <c r="A91" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B91" s="8">
         <v>15</v>
@@ -4024,9 +3421,9 @@
       <c r="I91" s="8"/>
       <c r="J91" s="11"/>
     </row>
-    <row r="92" ht="14.5" spans="1:10">
+    <row r="92" spans="1:10" ht="14.5" hidden="1">
       <c r="A92" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B92" s="8">
         <v>10</v>
@@ -4053,9 +3450,9 @@
       <c r="I92" s="8"/>
       <c r="J92" s="9"/>
     </row>
-    <row r="93" ht="14.5" spans="1:10">
+    <row r="93" spans="1:10" ht="14.5" hidden="1">
       <c r="A93" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B93" s="8">
         <v>15</v>
@@ -4081,9 +3478,9 @@
       <c r="I93" s="8"/>
       <c r="J93" s="9"/>
     </row>
-    <row r="94" ht="14.5" spans="1:10">
+    <row r="94" spans="1:10" ht="14.5" hidden="1">
       <c r="A94" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B94" s="8">
         <v>15</v>
@@ -4109,9 +3506,9 @@
       <c r="I94" s="8"/>
       <c r="J94" s="9"/>
     </row>
-    <row r="95" ht="14.5" spans="1:10">
+    <row r="95" spans="1:10" ht="14.5" hidden="1">
       <c r="A95" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B95" s="8">
         <v>25</v>
@@ -4137,7 +3534,7 @@
       <c r="I95" s="8"/>
       <c r="J95" s="9"/>
     </row>
-    <row r="96" ht="14.5" spans="1:10">
+    <row r="96" spans="1:10" ht="14.5">
       <c r="A96" s="9"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -4149,7 +3546,7 @@
       <c r="I96" s="8"/>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" ht="14.5" spans="1:10">
+    <row r="97" spans="1:10" ht="14.5">
       <c r="A97" s="9"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -4161,7 +3558,7 @@
       <c r="I97" s="8"/>
       <c r="J97" s="9"/>
     </row>
-    <row r="98" ht="14.5" spans="1:10">
+    <row r="98" spans="1:10" ht="14.5">
       <c r="A98" s="9"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -4174,12 +3571,19 @@
       <c r="J98" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A$1:A$1048576">
+  <autoFilter ref="A1:J95" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Cystal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <printOptions gridLines="1"/>
-  <pageMargins left="0.75" right="0.75" top="0.590277777777778" bottom="0.66875" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="0.59027777777777801" bottom="0.66874999999999996" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>